--- a/diaries/diary-Soobin-Choi.xlsx
+++ b/diaries/diary-Soobin-Choi.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -521,6 +521,21 @@
   </si>
   <si>
     <t>Even more nervous; about the final</t>
+  </si>
+  <si>
+    <t>5:00PM-8:40PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrap up assignment 6 and submit pull request for the issue and test cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed hw 6 and submitted pull requests for new test cases and issue on Glide github </t>
+  </si>
+  <si>
+    <t>Backward compatibility and version dependency can both be huge sources of issues, especially when method signatures and system architecture are modified. In this case, reverse engineering the code, recovering the relationship between essential classes, and comparing the differences can be extremely helpful, if not necessary to create meaningful contributions to the existing system.</t>
+  </si>
+  <si>
+    <t>WOOOT DONE WITH ALL ASSIGNMENTS!</t>
   </si>
 </sst>
 </file>
@@ -1926,9 +1941,9 @@
     <col min="1" max="1" width="21.3516" style="1" customWidth="1"/>
     <col min="2" max="3" width="32.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37" style="1" customWidth="1"/>
     <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2767,14 +2782,28 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
+    <row r="42" ht="157" customHeight="1">
+      <c r="A42" s="19">
+        <v>43906</v>
+      </c>
+      <c r="B42" t="s" s="23">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s" s="21">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s" s="21">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s" s="21">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s" s="22">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" s="26"/>
